--- a/medicine/Psychotrope/Touraine-azay-le-rideau/Touraine-azay-le-rideau.xlsx
+++ b/medicine/Psychotrope/Touraine-azay-le-rideau/Touraine-azay-le-rideau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le touraine Azay-le-Rideau est un vin produit autour d'Azay-le-Rideau, en Indre-et-Loire. Il s'agit d'une dénomination géographique au sein de l'appellation d'origine contrôlée touraine.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Le vignoble d'Azay-le-Rideau est très certainement[réf. nécessaire] le berceau de la viticulture gallo-romaine en Touraine.
-Période contemporaine
-L'appellation d'origine contrôlée (AOC) touraine est créée en 1939 pour les vins rouges et blancs, et en 1976 pour les vins rosés[2]. Le cahier des charges de l'appellation est modifié en 2011[1].
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble d'Azay-le-Rideau est très certainement[réf. nécessaire] le berceau de la viticulture gallo-romaine en Touraine.
 </t>
         </is>
       </c>
@@ -543,10 +558,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation d'origine contrôlée (AOC) touraine est créée en 1939 pour les vins rouges et blancs, et en 1976 pour les vins rosés. Le cahier des charges de l'appellation est modifié en 2011.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,21 +595,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour cette dénomination géographique, la récolte des raisins, la vinification et l'élevage des vins sont limités aux communes d'Artannes-sur-Indre, Azay-le-Rideau, Cheillé, Lignières-de-Touraine, Rivarennes, Saché, Thilouze et Vallères dans le département d'Indre-et-Loire.
-Par dérogation, la production est aussi possible sur l'« aire de proximité immédiate », soit les communes d'Avon-les-Roches, Bréhémont, La Chapelle-aux-Naux, Cravant-les-Côteaux, Crissay-sur-Manse, Langeais, Panzoult, Rigny-Ussé, Saint-Benoît-la-Forêt et Villaines-les-Rochers[1].
-Orographie
-Géologie
-Le vignoble est réparti sur deux types de sols : des sols d'argile à silex dits « perruches » (car les silex ont une forme recourbée comme les becs de perruches) et des sols argilo-calcaires dits « aubuis »[3].
-Climatologie
-Le vignoble subit une influence océanique à l’ouest et une influence continentale à l’est.
-</t>
-        </is>
-      </c>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,24 +623,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vignoble</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-AOC comprenant une surface de production de 60 hectares dont 60 % de vins rosés [2].
-Encépagement
-Pour les vins rosés, le cépage principal est le grolleau (au minimum 60 %), complété par du gamay, du côt, du cabernet franc et du cabernet sauvignon ; le vin blanc est produit uniquement avec du chenin blanc[1].
-Méthodes culturales
-Rendements
-Rendement maximum : 55 hl/ha
-Rendement butoir : 66 hl/ha
-Perte du bénéfice de l'appellation : 85 pour le blanc et 80 hl/ha pour le rosé[1].
-Structure des exploitations
-Type de vins et gastronomie
-Mariage avec les viandes blanches, la volaille et les fruits de mer, ainsi que les poissons.
-Commercialisation</t>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour cette dénomination géographique, la récolte des raisins, la vinification et l'élevage des vins sont limités aux communes d'Artannes-sur-Indre, Azay-le-Rideau, Cheillé, Lignières-de-Touraine, Rivarennes, Saché, Thilouze et Vallères dans le département d'Indre-et-Loire.
+Par dérogation, la production est aussi possible sur l'« aire de proximité immédiate », soit les communes d'Avon-les-Roches, Bréhémont, La Chapelle-aux-Naux, Cravant-les-Côteaux, Crissay-sur-Manse, Langeais, Panzoult, Rigny-Ussé, Saint-Benoît-la-Forêt et Villaines-les-Rochers.
+</t>
         </is>
       </c>
     </row>
@@ -648,10 +657,236 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble est réparti sur deux types de sols : des sols d'argile à silex dits « perruches » (car les silex ont une forme recourbée comme les becs de perruches) et des sols argilo-calcaires dits « aubuis ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble subit une influence océanique à l’ouest et une influence continentale à l’est.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AOC comprenant une surface de production de 60 hectares dont 60 % de vins rosés .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les vins rosés, le cépage principal est le grolleau (au minimum 60 %), complété par du gamay, du côt, du cabernet franc et du cabernet sauvignon ; le vin blanc est produit uniquement avec du chenin blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rendement maximum : 55 hl/ha
+Rendement butoir : 66 hl/ha
+Perte du bénéfice de l'appellation : 85 pour le blanc et 80 hl/ha pour le rosé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mariage avec les viandes blanches, la volaille et les fruits de mer, ainsi que les poissons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Touraine-azay-le-rideau</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
